--- a/owlcms/src/main/resources/templates/competitionBook/Total-A4.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/Total-A4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49567571-8199-4A0E-9736-E4F7D2DFE0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992D4E53-736F-4A8B-AC96-877D1DD9E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2805" windowWidth="21600" windowHeight="11295" tabRatio="447" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="35" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="8">WR!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">WS!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="165">
   <si>
     <t>${l.lastName}</t>
   </si>
@@ -543,21 +543,27 @@
   </si>
   <si>
     <t>${t.get("Qpoints")}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${mQPoints}" var="l" varStatus="lifterLoop"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${wQPoints}" var="l" varStatus="lifterLoop"&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="180" formatCode="0.0;&quot;&quot;"/>
-    <numFmt numFmtId="181" formatCode="0;\(0\);\-"/>
-    <numFmt numFmtId="182" formatCode="0.000;&quot;&quot;;\-"/>
-    <numFmt numFmtId="183" formatCode="#,##0&quot;     &quot;;&quot; (&quot;#,##0&quot;)    &quot;;&quot; -&quot;#&quot;     &quot;;@\ "/>
-    <numFmt numFmtId="184" formatCode="#"/>
-    <numFmt numFmtId="185" formatCode="0;&quot;&quot;"/>
-    <numFmt numFmtId="187" formatCode="0;&quot;&quot;;\-"/>
-    <numFmt numFmtId="190" formatCode="_-#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="164" formatCode="0.0;&quot;&quot;"/>
+    <numFmt numFmtId="165" formatCode="0;\(0\);\-"/>
+    <numFmt numFmtId="166" formatCode="0.000;&quot;&quot;;\-"/>
+    <numFmt numFmtId="167" formatCode="#,##0&quot;     &quot;;&quot; (&quot;#,##0&quot;)    &quot;;&quot; -&quot;#&quot;     &quot;;@\ "/>
+    <numFmt numFmtId="168" formatCode="#"/>
+    <numFmt numFmtId="169" formatCode="0;&quot;&quot;"/>
+    <numFmt numFmtId="170" formatCode="0;&quot;&quot;;\-"/>
+    <numFmt numFmtId="171" formatCode="_-#,##0;[Red]\(#,##0\);\-"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1257,7 +1263,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1266,21 +1272,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1293,7 +1295,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1305,7 +1307,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1319,13 +1321,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1360,13 +1362,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1382,16 +1384,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1429,11 +1431,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1441,10 +1443,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,14 +1461,14 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1540,35 +1542,12 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1602,6 +1581,49 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1632,69 +1654,25 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Emphase 1" xfId="1"/>
-    <cellStyle name="Emphase 2" xfId="2"/>
-    <cellStyle name="Emphase 3" xfId="3"/>
-    <cellStyle name="Lien hypertexte 2" xfId="4"/>
+    <cellStyle name="Emphase 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Emphase 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Emphase 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Lien hypertexte 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Titre 1" xfId="7"/>
-    <cellStyle name="Titre 1 1" xfId="8"/>
-    <cellStyle name="Titre 1 1 1" xfId="9"/>
-    <cellStyle name="Titre de la feuille" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Titre 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Titre 1 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Titre 1 1 1" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Titre de la feuille" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2259,89 +2237,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="28" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="24" customWidth="1"/>
     <col min="15" max="17" width="8.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" style="28" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="52" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="52" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="53"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N6"/>
@@ -2356,117 +2334,117 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
       <c r="I8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="L8" s="60"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="59"/>
+      <c r="J8" s="55"/>
+      <c r="L8" s="56"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="56"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="52"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
       <c r="K9"/>
-      <c r="L9" s="59"/>
-      <c r="N9" s="60"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="59"/>
-    </row>
-    <row r="10" spans="1:19" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="55" t="s">
+      <c r="L9" s="55"/>
+      <c r="N9" s="56"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="55"/>
+    </row>
+    <row r="10" spans="1:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="56" t="s">
+      <c r="M10" s="52" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>102</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="56"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="1"/>
-      <c r="M11" s="56" t="s">
+      <c r="M11" s="52" t="s">
         <v>105</v>
       </c>
       <c r="N11" s="1"/>
       <c r="P11"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="63"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="59"/>
       <c r="S11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="52" t="s">
         <v>107</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="56"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="56" t="s">
+      <c r="M12" s="52" t="s">
         <v>110</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="56"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="63"/>
+      <c r="O12" s="52"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="59"/>
       <c r="S12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="59" t="s">
         <v>112</v>
       </c>
       <c r="J13" s="1"/>
@@ -2478,37 +2456,37 @@
       <c r="S13"/>
     </row>
     <row r="14" spans="1:19" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56" t="s">
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:19" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
+      <c r="E15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2534,9 +2512,9 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="28"/>
+      <c r="N17" s="24"/>
       <c r="R17"/>
-      <c r="S17" s="28"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
@@ -2552,9 +2530,9 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="28"/>
+      <c r="N18" s="24"/>
       <c r="R18"/>
-      <c r="S18" s="28"/>
+      <c r="S18" s="24"/>
     </row>
     <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
@@ -2570,9 +2548,9 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" s="28"/>
+      <c r="N19" s="24"/>
       <c r="R19"/>
-      <c r="S19" s="28"/>
+      <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
@@ -2588,9 +2566,9 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20" s="28"/>
+      <c r="N20" s="24"/>
       <c r="R20"/>
-      <c r="S20" s="28"/>
+      <c r="S20" s="24"/>
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
@@ -2606,9 +2584,9 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21" s="28"/>
+      <c r="N21" s="24"/>
       <c r="R21"/>
-      <c r="S21" s="28"/>
+      <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
@@ -2624,9 +2602,9 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22" s="28"/>
+      <c r="N22" s="24"/>
       <c r="R22"/>
-      <c r="S22" s="28"/>
+      <c r="S22" s="24"/>
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
@@ -2642,9 +2620,9 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23" s="28"/>
+      <c r="N23" s="24"/>
       <c r="R23"/>
-      <c r="S23" s="28"/>
+      <c r="S23" s="24"/>
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
@@ -2660,9 +2638,9 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" s="28"/>
+      <c r="N24" s="24"/>
       <c r="R24"/>
-      <c r="S24" s="28"/>
+      <c r="S24" s="24"/>
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
@@ -2678,9 +2656,9 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25" s="28"/>
+      <c r="N25" s="24"/>
       <c r="R25"/>
-      <c r="S25" s="28"/>
+      <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
@@ -2696,9 +2674,9 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26" s="28"/>
+      <c r="N26" s="24"/>
       <c r="R26"/>
-      <c r="S26" s="28"/>
+      <c r="S26" s="24"/>
     </row>
     <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
@@ -2714,9 +2692,9 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-      <c r="N27" s="28"/>
+      <c r="N27" s="24"/>
       <c r="R27"/>
-      <c r="S27" s="28"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
@@ -2732,9 +2710,9 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="N28" s="28"/>
+      <c r="N28" s="24"/>
       <c r="R28"/>
-      <c r="S28" s="28"/>
+      <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
@@ -2750,9 +2728,9 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" s="28"/>
+      <c r="N29" s="24"/>
       <c r="R29"/>
-      <c r="S29" s="28"/>
+      <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
@@ -2768,9 +2746,9 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-      <c r="N30" s="28"/>
+      <c r="N30" s="24"/>
       <c r="R30"/>
-      <c r="S30" s="28"/>
+      <c r="S30" s="24"/>
     </row>
     <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
@@ -2786,9 +2764,9 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31" s="28"/>
+      <c r="N31" s="24"/>
       <c r="R31"/>
-      <c r="S31" s="28"/>
+      <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
@@ -2804,9 +2782,9 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-      <c r="N32" s="28"/>
+      <c r="N32" s="24"/>
       <c r="R32"/>
-      <c r="S32" s="28"/>
+      <c r="S32" s="24"/>
     </row>
     <row r="33" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
@@ -2822,9 +2800,9 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="N33" s="28"/>
+      <c r="N33" s="24"/>
       <c r="R33"/>
-      <c r="S33" s="28"/>
+      <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
@@ -2840,9 +2818,9 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34" s="28"/>
+      <c r="N34" s="24"/>
       <c r="R34"/>
-      <c r="S34" s="28"/>
+      <c r="S34" s="24"/>
     </row>
     <row r="35" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
@@ -2858,9 +2836,9 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-      <c r="N35" s="28"/>
+      <c r="N35" s="24"/>
       <c r="R35"/>
-      <c r="S35" s="28"/>
+      <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
@@ -2876,9 +2854,9 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-      <c r="N36" s="28"/>
+      <c r="N36" s="24"/>
       <c r="R36"/>
-      <c r="S36" s="28"/>
+      <c r="S36" s="24"/>
     </row>
     <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
@@ -2894,9 +2872,9 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-      <c r="N37" s="28"/>
+      <c r="N37" s="24"/>
       <c r="R37"/>
-      <c r="S37" s="28"/>
+      <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
@@ -2912,9 +2890,9 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" s="28"/>
+      <c r="N38" s="24"/>
       <c r="R38"/>
-      <c r="S38" s="28"/>
+      <c r="S38" s="24"/>
     </row>
     <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
@@ -2930,9 +2908,9 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39" s="28"/>
+      <c r="N39" s="24"/>
       <c r="R39"/>
-      <c r="S39" s="28"/>
+      <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
@@ -2948,9 +2926,9 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="N40" s="28"/>
+      <c r="N40" s="24"/>
       <c r="R40"/>
-      <c r="S40" s="28"/>
+      <c r="S40" s="24"/>
     </row>
     <row r="41" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
@@ -2966,9 +2944,9 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-      <c r="N41" s="28"/>
+      <c r="N41" s="24"/>
       <c r="R41"/>
-      <c r="S41" s="28"/>
+      <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
@@ -2984,9 +2962,9 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
-      <c r="N42" s="28"/>
+      <c r="N42" s="24"/>
       <c r="R42"/>
-      <c r="S42" s="28"/>
+      <c r="S42" s="24"/>
     </row>
     <row r="43" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
@@ -3002,9 +2980,9 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
-      <c r="N43" s="28"/>
+      <c r="N43" s="24"/>
       <c r="R43"/>
-      <c r="S43" s="28"/>
+      <c r="S43" s="24"/>
     </row>
     <row r="44" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
@@ -3020,9 +2998,9 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-      <c r="N44" s="28"/>
+      <c r="N44" s="24"/>
       <c r="R44"/>
-      <c r="S44" s="28"/>
+      <c r="S44" s="24"/>
     </row>
     <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
@@ -3038,9 +3016,9 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-      <c r="N45" s="28"/>
+      <c r="N45" s="24"/>
       <c r="R45"/>
-      <c r="S45" s="28"/>
+      <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
@@ -3056,9 +3034,9 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46" s="28"/>
+      <c r="N46" s="24"/>
       <c r="R46"/>
-      <c r="S46" s="28"/>
+      <c r="S46" s="24"/>
     </row>
     <row r="47" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
@@ -3074,9 +3052,9 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
-      <c r="N47" s="28"/>
+      <c r="N47" s="24"/>
       <c r="R47"/>
-      <c r="S47" s="28"/>
+      <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48"/>
@@ -3092,9 +3070,9 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
-      <c r="N48" s="28"/>
+      <c r="N48" s="24"/>
       <c r="R48"/>
-      <c r="S48" s="28"/>
+      <c r="S48" s="24"/>
     </row>
     <row r="49" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
@@ -3110,9 +3088,9 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
-      <c r="N49" s="28"/>
+      <c r="N49" s="24"/>
       <c r="R49"/>
-      <c r="S49" s="28"/>
+      <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50"/>
@@ -3128,9 +3106,9 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" s="28"/>
+      <c r="N50" s="24"/>
       <c r="R50"/>
-      <c r="S50" s="28"/>
+      <c r="S50" s="24"/>
     </row>
     <row r="51" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
@@ -3146,9 +3124,9 @@
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="N51" s="28"/>
+      <c r="N51" s="24"/>
       <c r="R51"/>
-      <c r="S51" s="28"/>
+      <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
@@ -3164,9 +3142,9 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
-      <c r="N52" s="28"/>
+      <c r="N52" s="24"/>
       <c r="R52"/>
-      <c r="S52" s="28"/>
+      <c r="S52" s="24"/>
     </row>
     <row r="53" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53"/>
@@ -3182,9 +3160,9 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
-      <c r="N53" s="28"/>
+      <c r="N53" s="24"/>
       <c r="R53"/>
-      <c r="S53" s="28"/>
+      <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54"/>
@@ -3200,9 +3178,9 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
-      <c r="N54" s="28"/>
+      <c r="N54" s="24"/>
       <c r="R54"/>
-      <c r="S54" s="28"/>
+      <c r="S54" s="24"/>
     </row>
     <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
@@ -3218,9 +3196,9 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
-      <c r="N55" s="28"/>
+      <c r="N55" s="24"/>
       <c r="R55"/>
-      <c r="S55" s="28"/>
+      <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
@@ -3236,9 +3214,9 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
-      <c r="N56" s="28"/>
+      <c r="N56" s="24"/>
       <c r="R56"/>
-      <c r="S56" s="28"/>
+      <c r="S56" s="24"/>
     </row>
     <row r="57" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
@@ -3254,9 +3232,9 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
-      <c r="N57" s="28"/>
+      <c r="N57" s="24"/>
       <c r="R57"/>
-      <c r="S57" s="28"/>
+      <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
@@ -3272,9 +3250,9 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
-      <c r="N58" s="28"/>
+      <c r="N58" s="24"/>
       <c r="R58"/>
-      <c r="S58" s="28"/>
+      <c r="S58" s="24"/>
     </row>
     <row r="59" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59"/>
@@ -3290,9 +3268,9 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
-      <c r="N59" s="28"/>
+      <c r="N59" s="24"/>
       <c r="R59"/>
-      <c r="S59" s="28"/>
+      <c r="S59" s="24"/>
     </row>
     <row r="60" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
@@ -3308,9 +3286,9 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
-      <c r="N60" s="28"/>
+      <c r="N60" s="24"/>
       <c r="R60"/>
-      <c r="S60" s="28"/>
+      <c r="S60" s="24"/>
     </row>
     <row r="61" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
@@ -3326,9 +3304,9 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
-      <c r="N61" s="28"/>
+      <c r="N61" s="24"/>
       <c r="R61"/>
-      <c r="S61" s="28"/>
+      <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
@@ -3344,9 +3322,9 @@
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
-      <c r="N62" s="28"/>
+      <c r="N62" s="24"/>
       <c r="R62"/>
-      <c r="S62" s="28"/>
+      <c r="S62" s="24"/>
     </row>
     <row r="63" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
@@ -3362,9 +3340,9 @@
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
-      <c r="N63" s="28"/>
+      <c r="N63" s="24"/>
       <c r="R63"/>
-      <c r="S63" s="28"/>
+      <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64"/>
@@ -3380,9 +3358,9 @@
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
-      <c r="N64" s="28"/>
+      <c r="N64" s="24"/>
       <c r="R64"/>
-      <c r="S64" s="28"/>
+      <c r="S64" s="24"/>
     </row>
     <row r="65" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
@@ -3398,9 +3376,9 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
-      <c r="N65" s="28"/>
+      <c r="N65" s="24"/>
       <c r="R65"/>
-      <c r="S65" s="28"/>
+      <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
@@ -3416,9 +3394,9 @@
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
-      <c r="N66" s="28"/>
+      <c r="N66" s="24"/>
       <c r="R66"/>
-      <c r="S66" s="28"/>
+      <c r="S66" s="24"/>
     </row>
     <row r="67" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
@@ -3434,9 +3412,9 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
-      <c r="N67" s="28"/>
+      <c r="N67" s="24"/>
       <c r="R67"/>
-      <c r="S67" s="28"/>
+      <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
@@ -3452,9 +3430,9 @@
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
-      <c r="N68" s="28"/>
+      <c r="N68" s="24"/>
       <c r="R68"/>
-      <c r="S68" s="28"/>
+      <c r="S68" s="24"/>
     </row>
     <row r="69" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
@@ -3470,9 +3448,9 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
-      <c r="N69" s="28"/>
+      <c r="N69" s="24"/>
       <c r="R69"/>
-      <c r="S69" s="28"/>
+      <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
@@ -3488,9 +3466,9 @@
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
-      <c r="N70" s="28"/>
+      <c r="N70" s="24"/>
       <c r="R70"/>
-      <c r="S70" s="28"/>
+      <c r="S70" s="24"/>
     </row>
     <row r="71" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
@@ -3506,9 +3484,9 @@
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
-      <c r="N71" s="28"/>
+      <c r="N71" s="24"/>
       <c r="R71"/>
-      <c r="S71" s="28"/>
+      <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
@@ -3524,9 +3502,9 @@
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
-      <c r="N72" s="28"/>
+      <c r="N72" s="24"/>
       <c r="R72"/>
-      <c r="S72" s="28"/>
+      <c r="S72" s="24"/>
     </row>
     <row r="73" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
@@ -3542,9 +3520,9 @@
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
-      <c r="N73" s="28"/>
+      <c r="N73" s="24"/>
       <c r="R73"/>
-      <c r="S73" s="28"/>
+      <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
@@ -3560,9 +3538,9 @@
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
-      <c r="N74" s="28"/>
+      <c r="N74" s="24"/>
       <c r="R74"/>
-      <c r="S74" s="28"/>
+      <c r="S74" s="24"/>
     </row>
     <row r="75" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
@@ -3578,9 +3556,9 @@
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
-      <c r="N75" s="28"/>
+      <c r="N75" s="24"/>
       <c r="R75"/>
-      <c r="S75" s="28"/>
+      <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
@@ -3596,9 +3574,9 @@
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
-      <c r="N76" s="28"/>
+      <c r="N76" s="24"/>
       <c r="R76"/>
-      <c r="S76" s="28"/>
+      <c r="S76" s="24"/>
     </row>
     <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77"/>
@@ -3614,9 +3592,9 @@
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
-      <c r="N77" s="28"/>
+      <c r="N77" s="24"/>
       <c r="R77"/>
-      <c r="S77" s="28"/>
+      <c r="S77" s="24"/>
     </row>
     <row r="78" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78"/>
@@ -3632,9 +3610,9 @@
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
-      <c r="N78" s="28"/>
+      <c r="N78" s="24"/>
       <c r="R78"/>
-      <c r="S78" s="28"/>
+      <c r="S78" s="24"/>
     </row>
     <row r="79" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
@@ -3650,9 +3628,9 @@
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
-      <c r="N79" s="28"/>
+      <c r="N79" s="24"/>
       <c r="R79"/>
-      <c r="S79" s="28"/>
+      <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80"/>
@@ -3668,9 +3646,9 @@
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
-      <c r="N80" s="28"/>
+      <c r="N80" s="24"/>
       <c r="R80"/>
-      <c r="S80" s="28"/>
+      <c r="S80" s="24"/>
     </row>
     <row r="81" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81"/>
@@ -3686,9 +3664,9 @@
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
-      <c r="N81" s="28"/>
+      <c r="N81" s="24"/>
       <c r="R81"/>
-      <c r="S81" s="28"/>
+      <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82"/>
@@ -3704,9 +3682,9 @@
       <c r="K82"/>
       <c r="L82"/>
       <c r="M82"/>
-      <c r="N82" s="28"/>
+      <c r="N82" s="24"/>
       <c r="R82"/>
-      <c r="S82" s="28"/>
+      <c r="S82" s="24"/>
     </row>
     <row r="83" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
@@ -3722,9 +3700,9 @@
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
-      <c r="N83" s="28"/>
+      <c r="N83" s="24"/>
       <c r="R83"/>
-      <c r="S83" s="28"/>
+      <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84"/>
@@ -3740,9 +3718,9 @@
       <c r="K84"/>
       <c r="L84"/>
       <c r="M84"/>
-      <c r="N84" s="28"/>
+      <c r="N84" s="24"/>
       <c r="R84"/>
-      <c r="S84" s="28"/>
+      <c r="S84" s="24"/>
     </row>
     <row r="85" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
@@ -3758,9 +3736,9 @@
       <c r="K85"/>
       <c r="L85"/>
       <c r="M85"/>
-      <c r="N85" s="28"/>
+      <c r="N85" s="24"/>
       <c r="R85"/>
-      <c r="S85" s="28"/>
+      <c r="S85" s="24"/>
     </row>
     <row r="86" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
@@ -3776,9 +3754,9 @@
       <c r="K86"/>
       <c r="L86"/>
       <c r="M86"/>
-      <c r="N86" s="28"/>
+      <c r="N86" s="24"/>
       <c r="R86"/>
-      <c r="S86" s="28"/>
+      <c r="S86" s="24"/>
     </row>
     <row r="87" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
@@ -3794,9 +3772,9 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87"/>
-      <c r="N87" s="28"/>
+      <c r="N87" s="24"/>
       <c r="R87"/>
-      <c r="S87" s="28"/>
+      <c r="S87" s="24"/>
     </row>
     <row r="88" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
@@ -3812,9 +3790,9 @@
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
-      <c r="N88" s="28"/>
+      <c r="N88" s="24"/>
       <c r="R88"/>
-      <c r="S88" s="28"/>
+      <c r="S88" s="24"/>
     </row>
     <row r="89" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
@@ -3830,9 +3808,9 @@
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
-      <c r="N89" s="28"/>
+      <c r="N89" s="24"/>
       <c r="R89"/>
-      <c r="S89" s="28"/>
+      <c r="S89" s="24"/>
     </row>
     <row r="90" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90"/>
@@ -3848,9 +3826,9 @@
       <c r="K90"/>
       <c r="L90"/>
       <c r="M90"/>
-      <c r="N90" s="28"/>
+      <c r="N90" s="24"/>
       <c r="R90"/>
-      <c r="S90" s="28"/>
+      <c r="S90" s="24"/>
     </row>
     <row r="91" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91"/>
@@ -3866,9 +3844,9 @@
       <c r="K91"/>
       <c r="L91"/>
       <c r="M91"/>
-      <c r="N91" s="28"/>
+      <c r="N91" s="24"/>
       <c r="R91"/>
-      <c r="S91" s="28"/>
+      <c r="S91" s="24"/>
     </row>
     <row r="92" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92"/>
@@ -3884,9 +3862,9 @@
       <c r="K92"/>
       <c r="L92"/>
       <c r="M92"/>
-      <c r="N92" s="28"/>
+      <c r="N92" s="24"/>
       <c r="R92"/>
-      <c r="S92" s="28"/>
+      <c r="S92" s="24"/>
     </row>
     <row r="93" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93"/>
@@ -3902,9 +3880,9 @@
       <c r="K93"/>
       <c r="L93"/>
       <c r="M93"/>
-      <c r="N93" s="28"/>
+      <c r="N93" s="24"/>
       <c r="R93"/>
-      <c r="S93" s="28"/>
+      <c r="S93" s="24"/>
     </row>
     <row r="94" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
@@ -3920,9 +3898,9 @@
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94"/>
-      <c r="N94" s="28"/>
+      <c r="N94" s="24"/>
       <c r="R94"/>
-      <c r="S94" s="28"/>
+      <c r="S94" s="24"/>
     </row>
     <row r="95" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
@@ -3938,9 +3916,9 @@
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
-      <c r="N95" s="28"/>
+      <c r="N95" s="24"/>
       <c r="R95"/>
-      <c r="S95" s="28"/>
+      <c r="S95" s="24"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3950,11 +3928,11 @@
     <mergeCell ref="B3:G3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H16 H8:H9">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H16 H8:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation showErrorMessage="1" sqref="Q11 I10:I12 D10:D13 N11:N12 R11:R12"/>
+    <dataValidation showErrorMessage="1" sqref="Q11 I10:I12 D10:D13 N11:N12 R11:R12" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -3967,7 +3945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3994,7 +3972,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3"/>
@@ -4005,28 +3983,28 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="P3" s="79" t="s">
+      <c r="P3" s="75" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4034,38 +4012,38 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="15"/>
       <c r="M4"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="111" t="s">
+      <c r="P5" s="107" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4082,10 +4060,10 @@
       <c r="S6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -4096,52 +4074,52 @@
     </row>
     <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="P10" s="79" t="s">
+      <c r="P10" s="75" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4158,52 +4136,52 @@
       <c r="S11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="77" t="s">
+      <c r="M12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="77" t="s">
+      <c r="N12" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="O12" s="77" t="s">
+      <c r="O12" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="P12" s="77" t="s">
+      <c r="P12" s="73" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4217,28 +4195,28 @@
       <c r="P13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11" t="str">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="str">
         <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
         <v/>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="8" t="str">
         <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
         <v/>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4268,7 +4246,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -4287,7 +4265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4314,7 +4292,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="3"/>
@@ -4325,28 +4303,28 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="P3" s="79" t="s">
+      <c r="P3" s="75" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4354,38 +4332,38 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="15"/>
       <c r="M4"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="111" t="s">
+      <c r="P5" s="107" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4402,10 +4380,10 @@
       <c r="S6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -4416,52 +4394,52 @@
     </row>
     <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="P10" s="79" t="s">
+      <c r="P10" s="75" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4478,52 +4456,52 @@
       <c r="S11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="77" t="s">
+      <c r="M12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="77" t="s">
+      <c r="N12" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="O12" s="77" t="s">
+      <c r="O12" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="P12" s="77" t="s">
+      <c r="P12" s="73" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4537,28 +4515,28 @@
       <c r="P13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11" t="str">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="str">
         <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
         <v/>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="8" t="str">
         <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
         <v/>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4588,7 +4566,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -4607,7 +4585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4634,7 +4612,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="3"/>
@@ -4645,31 +4623,31 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="P3" s="79" t="s">
+      <c r="P3" s="75" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4677,53 +4655,43 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="15"/>
       <c r="M4"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="111" t="s">
+      <c r="P5" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4734,15 +4702,15 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="7"/>
+      <c r="R6"/>
       <c r="S6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -4753,52 +4721,52 @@
     </row>
     <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:19" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="P10" s="79" t="s">
+      <c r="P10" s="75" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4814,58 +4782,55 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="77" t="s">
+      <c r="M12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="77" t="s">
+      <c r="N12" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="O12" s="77" t="s">
+      <c r="O12" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="P12" s="77" t="s">
+      <c r="P12" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4877,28 +4842,28 @@
       <c r="P13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11" t="str">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="str">
         <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
         <v/>
       </c>
-      <c r="C14" s="10" t="str">
+      <c r="C14" s="8" t="str">
         <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
         <v/>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4936,7 +4901,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -4955,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4986,207 +4951,205 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:24" s="80" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:24" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="81"/>
-    </row>
-    <row r="3" spans="1:24" s="80" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-    </row>
-    <row r="4" spans="1:24" s="93" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="1:24" s="76" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+    </row>
+    <row r="4" spans="1:24" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="86"/>
+      <c r="I4" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="84" t="s">
+      <c r="K4" s="87"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="85"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="84" t="s">
+      <c r="O4" s="81"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="85"/>
-      <c r="S4" s="84" t="s">
+      <c r="R4" s="81"/>
+      <c r="S4" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="T4" s="91"/>
-      <c r="U4" s="84" t="s">
+      <c r="T4" s="87"/>
+      <c r="U4" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="V4" s="92"/>
-      <c r="X4" s="86"/>
-    </row>
-    <row r="5" spans="1:24" s="98" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94" t="s">
+      <c r="V4" s="88"/>
+      <c r="X4" s="82"/>
+    </row>
+    <row r="5" spans="1:24" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="97"/>
-      <c r="M5" s="97"/>
-    </row>
-    <row r="6" spans="1:24" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="93"/>
+      <c r="M5" s="93"/>
+    </row>
+    <row r="6" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="105" t="s">
+      <c r="H6" s="97"/>
+      <c r="I6" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="J6" s="103" t="s">
+      <c r="J6" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="103" t="s">
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="100"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="99" t="s">
+      <c r="O6" s="96"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="R6" s="100"/>
-      <c r="S6" s="104" t="s">
+      <c r="R6" s="96"/>
+      <c r="S6" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="T6" s="100"/>
-      <c r="U6" s="106" t="s">
+      <c r="T6" s="96"/>
+      <c r="U6" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="101"/>
-      <c r="X6" s="101"/>
-    </row>
-    <row r="7" spans="1:24" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107" t="s">
+      <c r="V6" s="97"/>
+      <c r="X6" s="97"/>
+    </row>
+    <row r="7" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="95"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="91"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:24" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107" t="s">
+    <row r="8" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="95"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="91"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:F3">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="C5:D5">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:D5">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:D5">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="D1:F3">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -5196,7 +5159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6836,7 +6799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6861,7 +6824,7 @@
     <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="7" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7" style="24" customWidth="1"/>
     <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="6.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" style="1" customWidth="1"/>
@@ -6872,146 +6835,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="116" t="s">
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="118" t="s">
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="119"/>
+      <c r="T1" s="123"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="39">
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="35">
         <v>1</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>2</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="16">
         <v>3</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="16">
         <v>1</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="16">
         <v>2</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="16">
         <v>3</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:23" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:23" s="22" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="1:23" s="18" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="71"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -7036,63 +6999,63 @@
       <c r="R6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:23" s="22" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:23" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="66" t="s">
+      <c r="M7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="66" t="s">
+      <c r="R7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="29" t="s">
+      <c r="S7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="65" t="s">
+      <c r="T7" s="61" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7144,7 +7107,7 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -7152,11 +7115,11 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="R15" s="120"/>
+      <c r="R15" s="124"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="R16" s="120"/>
+      <c r="R16" s="124"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -7434,45 +7397,43 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="R15:R16"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F7:F9">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F7:F9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -7488,7 +7449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7510,105 +7471,105 @@
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="28" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="24" customWidth="1"/>
     <col min="21" max="22" width="10.140625" style="1" customWidth="1"/>
     <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="134" t="s">
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="136" t="s">
+      <c r="R1" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="20">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="16">
         <v>1</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>2</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="16">
         <v>3</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="16">
         <v>1</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="16">
         <v>2</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="16">
         <v>3</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="46" t="s">
+      <c r="Q2" s="136"/>
+      <c r="R2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7635,66 +7596,66 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="22" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:23" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="T4" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7728,7 +7689,7 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -7736,11 +7697,11 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
-      <c r="R10" s="120"/>
+      <c r="R10" s="124"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-      <c r="R11" s="120"/>
+      <c r="R11" s="124"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
@@ -8018,6 +7979,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -8025,20 +7991,15 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -8054,563 +8015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="26" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="28" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="129" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="114" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="137" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="138" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="142" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="141" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="134" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="136" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="136"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="20">
-        <v>1</v>
-      </c>
-      <c r="J2" s="20">
-        <v>2</v>
-      </c>
-      <c r="K2" s="20">
-        <v>3</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="20">
-        <v>1</v>
-      </c>
-      <c r="N2" s="20">
-        <v>2</v>
-      </c>
-      <c r="O2" s="20">
-        <v>3</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="25"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="22" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="S4" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" s="25"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="R10" s="120"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="R11" s="120"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="78" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.MQ_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.MQ_RightHeader")}</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8629,10 +8034,10 @@
     <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="22" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
@@ -8642,102 +8047,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="134" t="s">
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="136"/>
+      <c r="R1" s="137" t="s">
+        <v>162</v>
+      </c>
+      <c r="S1" s="137"/>
       <c r="U1"/>
       <c r="V1"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="20">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="16">
         <v>1</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>2</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="16">
         <v>3</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="16">
         <v>1</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="16">
         <v>2</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="16">
         <v>3</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="45" t="s">
+      <c r="Q2" s="136"/>
+      <c r="R2" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="21"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -8751,63 +8156,63 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" s="22" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:22" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="48" t="s">
+      <c r="R4" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="S4" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="V4" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8819,7 +8224,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="21"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -8840,7 +8245,7 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -8848,11 +8253,11 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
-      <c r="R10" s="120"/>
+      <c r="R10" s="124"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-      <c r="R11" s="120"/>
+      <c r="R11" s="124"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
@@ -9130,6 +8535,567 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" scale="78" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.MQ_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.MQ_RightHeader")}</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="22" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="137"/>
+      <c r="U1"/>
+      <c r="V1"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <v>2</v>
+      </c>
+      <c r="K2" s="16">
+        <v>3</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="16">
+        <v>1</v>
+      </c>
+      <c r="N2" s="16">
+        <v>2</v>
+      </c>
+      <c r="O2" s="16">
+        <v>3</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="21"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="21"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="19"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="R10" s="124"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="R11" s="124"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="13">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -9137,20 +9103,15 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -9166,7 +9127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9201,146 +9162,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="116" t="s">
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="118" t="s">
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="119"/>
+      <c r="T1" s="123"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="39">
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="35">
         <v>1</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>2</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="16">
         <v>3</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="16">
         <v>1</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="16">
         <v>2</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="16">
         <v>3</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:23" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:23" s="22" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="1:23" s="18" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="71"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -9363,63 +9324,63 @@
       <c r="P6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:23" s="22" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:23" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="66" t="s">
+      <c r="M7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="66" t="s">
+      <c r="R7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="29" t="s">
+      <c r="S7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="65" t="s">
+      <c r="T7" s="61" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9472,7 +9433,7 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -9480,11 +9441,11 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="P16" s="120"/>
+      <c r="P16" s="124"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="P17" s="120"/>
+      <c r="P17" s="124"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
@@ -9762,45 +9723,43 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="P16:P17"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F7:F9">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F7:F9" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -9816,7 +9775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9838,104 +9797,104 @@
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="28" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="24" customWidth="1"/>
     <col min="21" max="23" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="134" t="s">
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="136" t="s">
+      <c r="R1" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="20">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="16">
         <v>1</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>2</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="16">
         <v>3</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="16">
         <v>1</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="16">
         <v>2</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="16">
         <v>3</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="46" t="s">
+      <c r="Q2" s="136"/>
+      <c r="R2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9962,66 +9921,66 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="22" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:23" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10328,31 +10287,26 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -10368,13 +10322,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -10387,114 +10341,114 @@
     <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="22" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="28" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="24" customWidth="1"/>
     <col min="20" max="22" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="134" t="s">
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="136" t="s">
+      <c r="R1" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="136"/>
+      <c r="S1" s="137"/>
       <c r="U1"/>
       <c r="V1"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="20">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="16">
         <v>1</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>2</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="16">
         <v>3</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="16">
         <v>1</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="16">
         <v>2</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="16">
         <v>3</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="46" t="s">
+      <c r="Q2" s="136"/>
+      <c r="R2" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="21"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -10509,63 +10463,63 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" s="22" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:22" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="V4" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10577,7 +10531,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="21"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -10872,31 +10826,26 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -10912,7 +10861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10931,102 +10880,102 @@
     <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="22" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="28" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="24" customWidth="1"/>
     <col min="20" max="22" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="134" t="s">
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="136" t="s">
+      <c r="R1" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="136"/>
+      <c r="S1" s="137"/>
       <c r="U1"/>
       <c r="V1"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="20">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="16">
         <v>1</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>2</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="16">
         <v>3</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="16">
         <v>1</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="16">
         <v>2</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="16">
         <v>3</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="46" t="s">
+      <c r="Q2" s="136"/>
+      <c r="R2" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -11038,7 +10987,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="21"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -11053,63 +11002,63 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" s="22" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:22" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="V4" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -11121,7 +11070,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="21"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -11416,11 +11365,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -11428,19 +11372,19 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>

--- a/owlcms/src/main/resources/templates/competitionBook/Total-A4.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/Total-A4.xlsx
@@ -1,44 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992D4E53-736F-4A8B-AC96-877D1DD9E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D852C3-3D86-491A-924D-9E13251CE078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="35" r:id="rId1"/>
     <sheet name="M6" sheetId="40" r:id="rId2"/>
-    <sheet name="MS" sheetId="28" r:id="rId3"/>
-    <sheet name="MQ" sheetId="44" r:id="rId4"/>
-    <sheet name="MR" sheetId="29" r:id="rId5"/>
-    <sheet name="W6" sheetId="41" r:id="rId6"/>
-    <sheet name="WS" sheetId="31" r:id="rId7"/>
-    <sheet name="WQ" sheetId="45" r:id="rId8"/>
-    <sheet name="WR" sheetId="32" r:id="rId9"/>
-    <sheet name="MT" sheetId="33" r:id="rId10"/>
-    <sheet name="WT" sheetId="34" r:id="rId11"/>
-    <sheet name="MWT" sheetId="18" r:id="rId12"/>
-    <sheet name="Records" sheetId="43" r:id="rId13"/>
-    <sheet name="Points" sheetId="42" r:id="rId14"/>
+    <sheet name="W6" sheetId="41" r:id="rId3"/>
+    <sheet name="MB" sheetId="46" r:id="rId4"/>
+    <sheet name="WB" sheetId="47" r:id="rId5"/>
+    <sheet name="MT" sheetId="33" r:id="rId6"/>
+    <sheet name="WT" sheetId="34" r:id="rId7"/>
+    <sheet name="MWT" sheetId="18" r:id="rId8"/>
+    <sheet name="Records" sheetId="43" r:id="rId9"/>
+    <sheet name="Points" sheetId="42" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'M6'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">MQ!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">MR!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">MS!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'W6'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">WQ!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">WR!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">WS!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">MB!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'W6'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">WB!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -54,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="157">
   <si>
     <t>${l.lastName}</t>
   </si>
@@ -179,30 +171,9 @@
     <t>${l.bestCleanJerk}</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${mSinclair}" var="l" varStatus="lifterLoop"&gt;</t>
-  </si>
-  <si>
-    <t>${l.sinclair}</t>
-  </si>
-  <si>
-    <t>${l.categorySinclair}</t>
-  </si>
-  <si>
-    <t>${l.sinclairRank}</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${wSinclair}" var="l" varStatus="lifterLoop"&gt;</t>
-  </si>
-  <si>
-    <t>${l.robi}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${mRobi}" var="l" varStatus="lifterLoop"&gt;</t>
-  </si>
-  <si>
     <t>${l.formattedBirth}</t>
   </si>
   <si>
@@ -218,12 +189,6 @@
     <t>${t.get("Lot")}</t>
   </si>
   <si>
-    <t>${t.get("robi")}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${wRobi}" var="l" varStatus="lifterLoop"&gt;</t>
-  </si>
-  <si>
     <t>${t.get("Results.MenPerTeam")}</t>
   </si>
   <si>
@@ -287,9 +252,6 @@
     <t>${t.get("Results.Rank")}</t>
   </si>
   <si>
-    <t>${t.get("Results.Sinclair")}</t>
-  </si>
-  <si>
     <t>${t.get("Results.Points")}</t>
   </si>
   <si>
@@ -413,9 +375,6 @@
     <t>${l.totalRank}</t>
   </si>
   <si>
-    <t>${lifterLoop.index + 1}</t>
-  </si>
-  <si>
     <t>&lt;jx:forEach items="${mTot}" groupBy="category.code"&gt;</t>
   </si>
   <si>
@@ -539,16 +498,25 @@
     <t>$[countif(j12:j12,3)]</t>
   </si>
   <si>
-    <t>${l.qPoints}</t>
-  </si>
-  <si>
-    <t>${t.get("Qpoints")}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${mQPoints}" var="l" varStatus="lifterLoop"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${wQPoints}" var="l" varStatus="lifterLoop"&gt;</t>
+    <t>${bestRankingTitle}</t>
+  </si>
+  <si>
+    <t>${t.get("Score")}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${mBest}" var="l" varStatus="lifterLoop"&gt;</t>
+  </si>
+  <si>
+    <t>${l.mastersLongCategory}</t>
+  </si>
+  <si>
+    <t>${l.bestLifterScore}</t>
+  </si>
+  <si>
+    <t>${l.bestLifterRank}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${wBest}" var="l" varStatus="lifterLoop"&gt;</t>
   </si>
 </sst>
 </file>
@@ -779,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -895,19 +863,6 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -1263,7 +1218,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1311,10 +1266,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1359,35 +1310,20 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1395,12 +1331,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1431,7 +1367,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1449,47 +1385,47 @@
     <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1506,28 +1442,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1542,12 +1478,20 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1557,11 +1501,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1569,40 +1517,56 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1612,7 +1576,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1624,39 +1588,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1672,39 +1608,7 @@
     <cellStyle name="Titre 1 1 1" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Titre de la feuille" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2250,76 +2154,76 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="22" customWidth="1"/>
     <col min="15" max="17" width="8.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" style="24" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>86</v>
+      <c r="A1" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>90</v>
+      <c r="A2" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="51"/>
+      <c r="A3" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="46"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N6"/>
@@ -2330,163 +2234,163 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="48"/>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="K9"/>
+      <c r="L9" s="48"/>
+      <c r="N9" s="49"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="48"/>
+    </row>
+    <row r="10" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C11" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="E11" s="1"/>
+      <c r="H11" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55" t="s">
+      <c r="I11" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" t="s">
+      <c r="J11" s="45"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="45" t="s">
         <v>95</v>
-      </c>
-      <c r="J8" s="55"/>
-      <c r="L8" s="56"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="55"/>
-    </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="52"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="K9"/>
-      <c r="L9" s="55"/>
-      <c r="N9" s="56"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="55"/>
-    </row>
-    <row r="10" spans="1:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C11" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="H11" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="1"/>
-      <c r="M11" s="52" t="s">
-        <v>105</v>
       </c>
       <c r="N11" s="1"/>
       <c r="P11"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="59"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="52"/>
       <c r="S11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C12" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>107</v>
+      <c r="C12" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="H12" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="52"/>
+      <c r="H12" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="45"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="52" t="s">
-        <v>110</v>
+      <c r="M12" s="45" t="s">
+        <v>100</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="52"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="59"/>
+      <c r="O12" s="45"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="52"/>
       <c r="S12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>112</v>
+      <c r="C13" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>102</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="M13" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="N13"/>
       <c r="S13"/>
     </row>
     <row r="14" spans="1:19" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
     </row>
     <row r="15" spans="1:19" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
+      <c r="E15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2512,9 +2416,9 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="24"/>
+      <c r="N17" s="22"/>
       <c r="R17"/>
-      <c r="S17" s="24"/>
+      <c r="S17" s="22"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
@@ -2530,9 +2434,9 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="24"/>
+      <c r="N18" s="22"/>
       <c r="R18"/>
-      <c r="S18" s="24"/>
+      <c r="S18" s="22"/>
     </row>
     <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
@@ -2548,9 +2452,9 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" s="24"/>
+      <c r="N19" s="22"/>
       <c r="R19"/>
-      <c r="S19" s="24"/>
+      <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
@@ -2566,9 +2470,9 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20" s="24"/>
+      <c r="N20" s="22"/>
       <c r="R20"/>
-      <c r="S20" s="24"/>
+      <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
@@ -2584,9 +2488,9 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21" s="24"/>
+      <c r="N21" s="22"/>
       <c r="R21"/>
-      <c r="S21" s="24"/>
+      <c r="S21" s="22"/>
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
@@ -2602,9 +2506,9 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22" s="24"/>
+      <c r="N22" s="22"/>
       <c r="R22"/>
-      <c r="S22" s="24"/>
+      <c r="S22" s="22"/>
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
@@ -2620,9 +2524,9 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23" s="24"/>
+      <c r="N23" s="22"/>
       <c r="R23"/>
-      <c r="S23" s="24"/>
+      <c r="S23" s="22"/>
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
@@ -2638,9 +2542,9 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" s="24"/>
+      <c r="N24" s="22"/>
       <c r="R24"/>
-      <c r="S24" s="24"/>
+      <c r="S24" s="22"/>
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
@@ -2656,9 +2560,9 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25" s="24"/>
+      <c r="N25" s="22"/>
       <c r="R25"/>
-      <c r="S25" s="24"/>
+      <c r="S25" s="22"/>
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
@@ -2674,9 +2578,9 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26" s="24"/>
+      <c r="N26" s="22"/>
       <c r="R26"/>
-      <c r="S26" s="24"/>
+      <c r="S26" s="22"/>
     </row>
     <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
@@ -2692,9 +2596,9 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-      <c r="N27" s="24"/>
+      <c r="N27" s="22"/>
       <c r="R27"/>
-      <c r="S27" s="24"/>
+      <c r="S27" s="22"/>
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
@@ -2710,9 +2614,9 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="N28" s="24"/>
+      <c r="N28" s="22"/>
       <c r="R28"/>
-      <c r="S28" s="24"/>
+      <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
@@ -2728,9 +2632,9 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" s="24"/>
+      <c r="N29" s="22"/>
       <c r="R29"/>
-      <c r="S29" s="24"/>
+      <c r="S29" s="22"/>
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
@@ -2746,9 +2650,9 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-      <c r="N30" s="24"/>
+      <c r="N30" s="22"/>
       <c r="R30"/>
-      <c r="S30" s="24"/>
+      <c r="S30" s="22"/>
     </row>
     <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
@@ -2764,9 +2668,9 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31" s="24"/>
+      <c r="N31" s="22"/>
       <c r="R31"/>
-      <c r="S31" s="24"/>
+      <c r="S31" s="22"/>
     </row>
     <row r="32" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
@@ -2782,9 +2686,9 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-      <c r="N32" s="24"/>
+      <c r="N32" s="22"/>
       <c r="R32"/>
-      <c r="S32" s="24"/>
+      <c r="S32" s="22"/>
     </row>
     <row r="33" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
@@ -2800,9 +2704,9 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="N33" s="24"/>
+      <c r="N33" s="22"/>
       <c r="R33"/>
-      <c r="S33" s="24"/>
+      <c r="S33" s="22"/>
     </row>
     <row r="34" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
@@ -2818,9 +2722,9 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34" s="24"/>
+      <c r="N34" s="22"/>
       <c r="R34"/>
-      <c r="S34" s="24"/>
+      <c r="S34" s="22"/>
     </row>
     <row r="35" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
@@ -2836,9 +2740,9 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-      <c r="N35" s="24"/>
+      <c r="N35" s="22"/>
       <c r="R35"/>
-      <c r="S35" s="24"/>
+      <c r="S35" s="22"/>
     </row>
     <row r="36" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
@@ -2854,9 +2758,9 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-      <c r="N36" s="24"/>
+      <c r="N36" s="22"/>
       <c r="R36"/>
-      <c r="S36" s="24"/>
+      <c r="S36" s="22"/>
     </row>
     <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
@@ -2872,9 +2776,9 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-      <c r="N37" s="24"/>
+      <c r="N37" s="22"/>
       <c r="R37"/>
-      <c r="S37" s="24"/>
+      <c r="S37" s="22"/>
     </row>
     <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
@@ -2890,9 +2794,9 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" s="24"/>
+      <c r="N38" s="22"/>
       <c r="R38"/>
-      <c r="S38" s="24"/>
+      <c r="S38" s="22"/>
     </row>
     <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
@@ -2908,9 +2812,9 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39" s="24"/>
+      <c r="N39" s="22"/>
       <c r="R39"/>
-      <c r="S39" s="24"/>
+      <c r="S39" s="22"/>
     </row>
     <row r="40" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
@@ -2926,9 +2830,9 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="N40" s="24"/>
+      <c r="N40" s="22"/>
       <c r="R40"/>
-      <c r="S40" s="24"/>
+      <c r="S40" s="22"/>
     </row>
     <row r="41" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
@@ -2944,9 +2848,9 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-      <c r="N41" s="24"/>
+      <c r="N41" s="22"/>
       <c r="R41"/>
-      <c r="S41" s="24"/>
+      <c r="S41" s="22"/>
     </row>
     <row r="42" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
@@ -2962,9 +2866,9 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
-      <c r="N42" s="24"/>
+      <c r="N42" s="22"/>
       <c r="R42"/>
-      <c r="S42" s="24"/>
+      <c r="S42" s="22"/>
     </row>
     <row r="43" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
@@ -2980,9 +2884,9 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
-      <c r="N43" s="24"/>
+      <c r="N43" s="22"/>
       <c r="R43"/>
-      <c r="S43" s="24"/>
+      <c r="S43" s="22"/>
     </row>
     <row r="44" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
@@ -2998,9 +2902,9 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-      <c r="N44" s="24"/>
+      <c r="N44" s="22"/>
       <c r="R44"/>
-      <c r="S44" s="24"/>
+      <c r="S44" s="22"/>
     </row>
     <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
@@ -3016,9 +2920,9 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-      <c r="N45" s="24"/>
+      <c r="N45" s="22"/>
       <c r="R45"/>
-      <c r="S45" s="24"/>
+      <c r="S45" s="22"/>
     </row>
     <row r="46" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
@@ -3034,9 +2938,9 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46" s="24"/>
+      <c r="N46" s="22"/>
       <c r="R46"/>
-      <c r="S46" s="24"/>
+      <c r="S46" s="22"/>
     </row>
     <row r="47" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
@@ -3052,9 +2956,9 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
-      <c r="N47" s="24"/>
+      <c r="N47" s="22"/>
       <c r="R47"/>
-      <c r="S47" s="24"/>
+      <c r="S47" s="22"/>
     </row>
     <row r="48" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48"/>
@@ -3070,9 +2974,9 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
-      <c r="N48" s="24"/>
+      <c r="N48" s="22"/>
       <c r="R48"/>
-      <c r="S48" s="24"/>
+      <c r="S48" s="22"/>
     </row>
     <row r="49" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
@@ -3088,9 +2992,9 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
-      <c r="N49" s="24"/>
+      <c r="N49" s="22"/>
       <c r="R49"/>
-      <c r="S49" s="24"/>
+      <c r="S49" s="22"/>
     </row>
     <row r="50" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50"/>
@@ -3106,9 +3010,9 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" s="24"/>
+      <c r="N50" s="22"/>
       <c r="R50"/>
-      <c r="S50" s="24"/>
+      <c r="S50" s="22"/>
     </row>
     <row r="51" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
@@ -3124,9 +3028,9 @@
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="N51" s="24"/>
+      <c r="N51" s="22"/>
       <c r="R51"/>
-      <c r="S51" s="24"/>
+      <c r="S51" s="22"/>
     </row>
     <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
@@ -3142,9 +3046,9 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
-      <c r="N52" s="24"/>
+      <c r="N52" s="22"/>
       <c r="R52"/>
-      <c r="S52" s="24"/>
+      <c r="S52" s="22"/>
     </row>
     <row r="53" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53"/>
@@ -3160,9 +3064,9 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
-      <c r="N53" s="24"/>
+      <c r="N53" s="22"/>
       <c r="R53"/>
-      <c r="S53" s="24"/>
+      <c r="S53" s="22"/>
     </row>
     <row r="54" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54"/>
@@ -3178,9 +3082,9 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
-      <c r="N54" s="24"/>
+      <c r="N54" s="22"/>
       <c r="R54"/>
-      <c r="S54" s="24"/>
+      <c r="S54" s="22"/>
     </row>
     <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
@@ -3196,9 +3100,9 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
-      <c r="N55" s="24"/>
+      <c r="N55" s="22"/>
       <c r="R55"/>
-      <c r="S55" s="24"/>
+      <c r="S55" s="22"/>
     </row>
     <row r="56" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
@@ -3214,9 +3118,9 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
-      <c r="N56" s="24"/>
+      <c r="N56" s="22"/>
       <c r="R56"/>
-      <c r="S56" s="24"/>
+      <c r="S56" s="22"/>
     </row>
     <row r="57" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
@@ -3232,9 +3136,9 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
-      <c r="N57" s="24"/>
+      <c r="N57" s="22"/>
       <c r="R57"/>
-      <c r="S57" s="24"/>
+      <c r="S57" s="22"/>
     </row>
     <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
@@ -3250,9 +3154,9 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
-      <c r="N58" s="24"/>
+      <c r="N58" s="22"/>
       <c r="R58"/>
-      <c r="S58" s="24"/>
+      <c r="S58" s="22"/>
     </row>
     <row r="59" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59"/>
@@ -3268,9 +3172,9 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
-      <c r="N59" s="24"/>
+      <c r="N59" s="22"/>
       <c r="R59"/>
-      <c r="S59" s="24"/>
+      <c r="S59" s="22"/>
     </row>
     <row r="60" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
@@ -3286,9 +3190,9 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
-      <c r="N60" s="24"/>
+      <c r="N60" s="22"/>
       <c r="R60"/>
-      <c r="S60" s="24"/>
+      <c r="S60" s="22"/>
     </row>
     <row r="61" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
@@ -3304,9 +3208,9 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
-      <c r="N61" s="24"/>
+      <c r="N61" s="22"/>
       <c r="R61"/>
-      <c r="S61" s="24"/>
+      <c r="S61" s="22"/>
     </row>
     <row r="62" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
@@ -3322,9 +3226,9 @@
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
-      <c r="N62" s="24"/>
+      <c r="N62" s="22"/>
       <c r="R62"/>
-      <c r="S62" s="24"/>
+      <c r="S62" s="22"/>
     </row>
     <row r="63" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
@@ -3340,9 +3244,9 @@
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
-      <c r="N63" s="24"/>
+      <c r="N63" s="22"/>
       <c r="R63"/>
-      <c r="S63" s="24"/>
+      <c r="S63" s="22"/>
     </row>
     <row r="64" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64"/>
@@ -3358,9 +3262,9 @@
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
-      <c r="N64" s="24"/>
+      <c r="N64" s="22"/>
       <c r="R64"/>
-      <c r="S64" s="24"/>
+      <c r="S64" s="22"/>
     </row>
     <row r="65" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
@@ -3376,9 +3280,9 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
-      <c r="N65" s="24"/>
+      <c r="N65" s="22"/>
       <c r="R65"/>
-      <c r="S65" s="24"/>
+      <c r="S65" s="22"/>
     </row>
     <row r="66" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
@@ -3394,9 +3298,9 @@
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
-      <c r="N66" s="24"/>
+      <c r="N66" s="22"/>
       <c r="R66"/>
-      <c r="S66" s="24"/>
+      <c r="S66" s="22"/>
     </row>
     <row r="67" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
@@ -3412,9 +3316,9 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
-      <c r="N67" s="24"/>
+      <c r="N67" s="22"/>
       <c r="R67"/>
-      <c r="S67" s="24"/>
+      <c r="S67" s="22"/>
     </row>
     <row r="68" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
@@ -3430,9 +3334,9 @@
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
-      <c r="N68" s="24"/>
+      <c r="N68" s="22"/>
       <c r="R68"/>
-      <c r="S68" s="24"/>
+      <c r="S68" s="22"/>
     </row>
     <row r="69" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
@@ -3448,9 +3352,9 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
-      <c r="N69" s="24"/>
+      <c r="N69" s="22"/>
       <c r="R69"/>
-      <c r="S69" s="24"/>
+      <c r="S69" s="22"/>
     </row>
     <row r="70" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
@@ -3466,9 +3370,9 @@
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
-      <c r="N70" s="24"/>
+      <c r="N70" s="22"/>
       <c r="R70"/>
-      <c r="S70" s="24"/>
+      <c r="S70" s="22"/>
     </row>
     <row r="71" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
@@ -3484,9 +3388,9 @@
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
-      <c r="N71" s="24"/>
+      <c r="N71" s="22"/>
       <c r="R71"/>
-      <c r="S71" s="24"/>
+      <c r="S71" s="22"/>
     </row>
     <row r="72" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
@@ -3502,9 +3406,9 @@
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
-      <c r="N72" s="24"/>
+      <c r="N72" s="22"/>
       <c r="R72"/>
-      <c r="S72" s="24"/>
+      <c r="S72" s="22"/>
     </row>
     <row r="73" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
@@ -3520,9 +3424,9 @@
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
-      <c r="N73" s="24"/>
+      <c r="N73" s="22"/>
       <c r="R73"/>
-      <c r="S73" s="24"/>
+      <c r="S73" s="22"/>
     </row>
     <row r="74" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
@@ -3538,9 +3442,9 @@
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
-      <c r="N74" s="24"/>
+      <c r="N74" s="22"/>
       <c r="R74"/>
-      <c r="S74" s="24"/>
+      <c r="S74" s="22"/>
     </row>
     <row r="75" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
@@ -3556,9 +3460,9 @@
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
-      <c r="N75" s="24"/>
+      <c r="N75" s="22"/>
       <c r="R75"/>
-      <c r="S75" s="24"/>
+      <c r="S75" s="22"/>
     </row>
     <row r="76" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
@@ -3574,9 +3478,9 @@
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
-      <c r="N76" s="24"/>
+      <c r="N76" s="22"/>
       <c r="R76"/>
-      <c r="S76" s="24"/>
+      <c r="S76" s="22"/>
     </row>
     <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77"/>
@@ -3592,9 +3496,9 @@
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
-      <c r="N77" s="24"/>
+      <c r="N77" s="22"/>
       <c r="R77"/>
-      <c r="S77" s="24"/>
+      <c r="S77" s="22"/>
     </row>
     <row r="78" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78"/>
@@ -3610,9 +3514,9 @@
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
-      <c r="N78" s="24"/>
+      <c r="N78" s="22"/>
       <c r="R78"/>
-      <c r="S78" s="24"/>
+      <c r="S78" s="22"/>
     </row>
     <row r="79" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
@@ -3628,9 +3532,9 @@
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
-      <c r="N79" s="24"/>
+      <c r="N79" s="22"/>
       <c r="R79"/>
-      <c r="S79" s="24"/>
+      <c r="S79" s="22"/>
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80"/>
@@ -3646,9 +3550,9 @@
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
-      <c r="N80" s="24"/>
+      <c r="N80" s="22"/>
       <c r="R80"/>
-      <c r="S80" s="24"/>
+      <c r="S80" s="22"/>
     </row>
     <row r="81" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81"/>
@@ -3664,9 +3568,9 @@
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
-      <c r="N81" s="24"/>
+      <c r="N81" s="22"/>
       <c r="R81"/>
-      <c r="S81" s="24"/>
+      <c r="S81" s="22"/>
     </row>
     <row r="82" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82"/>
@@ -3682,9 +3586,9 @@
       <c r="K82"/>
       <c r="L82"/>
       <c r="M82"/>
-      <c r="N82" s="24"/>
+      <c r="N82" s="22"/>
       <c r="R82"/>
-      <c r="S82" s="24"/>
+      <c r="S82" s="22"/>
     </row>
     <row r="83" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
@@ -3700,9 +3604,9 @@
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
-      <c r="N83" s="24"/>
+      <c r="N83" s="22"/>
       <c r="R83"/>
-      <c r="S83" s="24"/>
+      <c r="S83" s="22"/>
     </row>
     <row r="84" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84"/>
@@ -3718,9 +3622,9 @@
       <c r="K84"/>
       <c r="L84"/>
       <c r="M84"/>
-      <c r="N84" s="24"/>
+      <c r="N84" s="22"/>
       <c r="R84"/>
-      <c r="S84" s="24"/>
+      <c r="S84" s="22"/>
     </row>
     <row r="85" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
@@ -3736,9 +3640,9 @@
       <c r="K85"/>
       <c r="L85"/>
       <c r="M85"/>
-      <c r="N85" s="24"/>
+      <c r="N85" s="22"/>
       <c r="R85"/>
-      <c r="S85" s="24"/>
+      <c r="S85" s="22"/>
     </row>
     <row r="86" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
@@ -3754,9 +3658,9 @@
       <c r="K86"/>
       <c r="L86"/>
       <c r="M86"/>
-      <c r="N86" s="24"/>
+      <c r="N86" s="22"/>
       <c r="R86"/>
-      <c r="S86" s="24"/>
+      <c r="S86" s="22"/>
     </row>
     <row r="87" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
@@ -3772,9 +3676,9 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87"/>
-      <c r="N87" s="24"/>
+      <c r="N87" s="22"/>
       <c r="R87"/>
-      <c r="S87" s="24"/>
+      <c r="S87" s="22"/>
     </row>
     <row r="88" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
@@ -3790,9 +3694,9 @@
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
-      <c r="N88" s="24"/>
+      <c r="N88" s="22"/>
       <c r="R88"/>
-      <c r="S88" s="24"/>
+      <c r="S88" s="22"/>
     </row>
     <row r="89" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
@@ -3808,9 +3712,9 @@
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
-      <c r="N89" s="24"/>
+      <c r="N89" s="22"/>
       <c r="R89"/>
-      <c r="S89" s="24"/>
+      <c r="S89" s="22"/>
     </row>
     <row r="90" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90"/>
@@ -3826,9 +3730,9 @@
       <c r="K90"/>
       <c r="L90"/>
       <c r="M90"/>
-      <c r="N90" s="24"/>
+      <c r="N90" s="22"/>
       <c r="R90"/>
-      <c r="S90" s="24"/>
+      <c r="S90" s="22"/>
     </row>
     <row r="91" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91"/>
@@ -3844,9 +3748,9 @@
       <c r="K91"/>
       <c r="L91"/>
       <c r="M91"/>
-      <c r="N91" s="24"/>
+      <c r="N91" s="22"/>
       <c r="R91"/>
-      <c r="S91" s="24"/>
+      <c r="S91" s="22"/>
     </row>
     <row r="92" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92"/>
@@ -3862,9 +3766,9 @@
       <c r="K92"/>
       <c r="L92"/>
       <c r="M92"/>
-      <c r="N92" s="24"/>
+      <c r="N92" s="22"/>
       <c r="R92"/>
-      <c r="S92" s="24"/>
+      <c r="S92" s="22"/>
     </row>
     <row r="93" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93"/>
@@ -3880,9 +3784,9 @@
       <c r="K93"/>
       <c r="L93"/>
       <c r="M93"/>
-      <c r="N93" s="24"/>
+      <c r="N93" s="22"/>
       <c r="R93"/>
-      <c r="S93" s="24"/>
+      <c r="S93" s="22"/>
     </row>
     <row r="94" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
@@ -3898,9 +3802,9 @@
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94"/>
-      <c r="N94" s="24"/>
+      <c r="N94" s="22"/>
       <c r="R94"/>
-      <c r="S94" s="24"/>
+      <c r="S94" s="22"/>
     </row>
     <row r="95" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
@@ -3916,9 +3820,9 @@
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
-      <c r="N95" s="24"/>
+      <c r="N95" s="22"/>
       <c r="R95"/>
-      <c r="S95" s="24"/>
+      <c r="S95" s="22"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3945,1227 +3849,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S17"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M2"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="O3" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3" s="75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="M4"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="P5" s="107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="P10" s="75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="str">
-        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="8" t="str">
-        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0900-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="81" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.M6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.M6_RightHeader")}</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="19" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M2"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="O3" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3" s="75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="M4"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="P5" s="107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="P10" s="75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="str">
-        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="8" t="str">
-        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="81" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.M6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.M6_RightHeader")}</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="19" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M2"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="O3" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3" s="75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="M4"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="P5" s="107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:19" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="P10" s="75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="str">
-        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="8" t="str">
-        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="81" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.M6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.M6_RightHeader")}</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="19" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:X8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" s="77"/>
-    </row>
-    <row r="3" spans="1:24" s="76" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-    </row>
-    <row r="4" spans="1:24" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" s="81"/>
-      <c r="S4" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="V4" s="88"/>
-      <c r="X4" s="82"/>
-    </row>
-    <row r="5" spans="1:24" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="93"/>
-      <c r="M5" s="93"/>
-    </row>
-    <row r="6" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" s="96"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="R6" s="96"/>
-      <c r="S6" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="T6" s="96"/>
-      <c r="U6" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="V6" s="97"/>
-      <c r="X6" s="97"/>
-    </row>
-    <row r="7" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="91"/>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="91"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C5:D5">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:F3">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3" xr:uid="{00000000-0002-0000-0C00-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{00000000-0002-0000-0C00-000001000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
@@ -5173,10 +3863,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6792,7 +5482,7 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.M6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.M6_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -6805,8 +5495,8 @@
   </sheetPr>
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6824,7 +5514,7 @@
     <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="7" style="24" customWidth="1"/>
+    <col min="14" max="14" width="7" style="22" customWidth="1"/>
     <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="6.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" style="1" customWidth="1"/>
@@ -6835,59 +5525,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="116" t="s">
+      <c r="A1" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="118" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="123"/>
+      <c r="E1" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="115"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="35">
+      <c r="A2" s="105"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="33">
         <v>1</v>
       </c>
       <c r="J2" s="16">
@@ -6896,11 +5586,11 @@
       <c r="K2" s="16">
         <v>3</v>
       </c>
-      <c r="L2" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="63" t="s">
-        <v>76</v>
+      <c r="L2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="N2" s="16">
         <v>1</v>
@@ -6911,77 +5601,77 @@
       <c r="P2" s="16">
         <v>3</v>
       </c>
-      <c r="Q2" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="63" t="s">
-        <v>76</v>
+      <c r="Q2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="56" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
+      <c r="A3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:23" s="18" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="71"/>
+      <c r="A5" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="64"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -7000,63 +5690,63 @@
       <c r="T6"/>
     </row>
     <row r="7" spans="1:23" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="27" t="s">
+      <c r="H7" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="62" t="s">
+      <c r="R7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="61" t="s">
-        <v>118</v>
+      <c r="T7" s="54" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -7115,11 +5805,11 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="R15" s="124"/>
+      <c r="R15" s="116"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="R16" s="124"/>
+      <c r="R16" s="116"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -7411,20 +6101,20 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7442,1699 +6132,21 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="84" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.M6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.M6_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:W102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="24" customWidth="1"/>
-    <col min="21" max="22" width="10.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="127" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="135" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="137" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="16">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16">
-        <v>2</v>
-      </c>
-      <c r="K2" s="16">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="16">
-        <v>1</v>
-      </c>
-      <c r="N2" s="16">
-        <v>2</v>
-      </c>
-      <c r="O2" s="16">
-        <v>3</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="R10" s="124"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="R11" s="124"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:T1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="75" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.M6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.M6_RightHeader")}</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="138" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="135" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="137" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="137"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="16">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16">
-        <v>2</v>
-      </c>
-      <c r="K2" s="16">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="16">
-        <v>1</v>
-      </c>
-      <c r="N2" s="16">
-        <v>2</v>
-      </c>
-      <c r="O2" s="16">
-        <v>3</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="21"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" s="21"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="R10" s="124"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="R11" s="124"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="78" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.MQ_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.MQ_RightHeader")}</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="138" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="135" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="137"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="16">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16">
-        <v>2</v>
-      </c>
-      <c r="K2" s="16">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="16">
-        <v>1</v>
-      </c>
-      <c r="N2" s="16">
-        <v>2</v>
-      </c>
-      <c r="O2" s="16">
-        <v>3</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="21"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" s="21"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="R10" s="124"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="R11" s="124"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:S1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="78" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.M6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.M6_RightHeader")}</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9162,59 +6174,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="116" t="s">
+      <c r="A1" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="118" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="123"/>
+      <c r="E1" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="115"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="35">
+      <c r="A2" s="105"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="33">
         <v>1</v>
       </c>
       <c r="J2" s="16">
@@ -9223,11 +6235,11 @@
       <c r="K2" s="16">
         <v>3</v>
       </c>
-      <c r="L2" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="63" t="s">
-        <v>76</v>
+      <c r="L2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="N2" s="16">
         <v>1</v>
@@ -9238,77 +6250,77 @@
       <c r="P2" s="16">
         <v>3</v>
       </c>
-      <c r="Q2" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="63" t="s">
-        <v>76</v>
+      <c r="Q2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="56" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
+      <c r="A3" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:23" s="18" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="71"/>
+      <c r="A5" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="64"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -9325,63 +6337,63 @@
       <c r="R6"/>
     </row>
     <row r="7" spans="1:23" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="27" t="s">
+      <c r="H7" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="62" t="s">
+      <c r="R7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="61" t="s">
-        <v>118</v>
+      <c r="T7" s="54" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -9441,11 +6453,11 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="P16" s="124"/>
+      <c r="P16" s="116"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="P17" s="124"/>
+      <c r="P17" s="116"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
@@ -9737,20 +6749,20 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9768,24 +6780,24 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="85" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.M6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.M6_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608205E5-48CB-414E-877C-9DF4550F72A4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W97"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -9797,69 +6809,68 @@
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="24" customWidth="1"/>
-    <col min="21" max="23" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="22" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="116" t="s">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="118" t="s">
-        <v>68</v>
+      <c r="E1" s="112" t="s">
+        <v>59</v>
       </c>
       <c r="F1" s="125" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G1" s="126" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H1" s="127" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I1" s="129" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J1" s="129"/>
       <c r="K1" s="129"/>
       <c r="L1" s="129"/>
       <c r="M1" s="129" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N1" s="129"/>
       <c r="O1" s="129"/>
       <c r="P1" s="129"/>
-      <c r="Q1" s="135" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="137" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
+      <c r="Q1" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="119"/>
+      <c r="U1"/>
       <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="118"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="125"/>
       <c r="G2" s="126"/>
       <c r="H2" s="128"/>
@@ -9872,7 +6883,7 @@
       <c r="K2" s="16">
         <v>3</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="32" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="16">
@@ -9884,23 +6895,20 @@
       <c r="O2" s="16">
         <v>3</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Q2" s="131"/>
+      <c r="R2" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="S2" s="56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -9915,76 +6923,72 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
+      <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+    </row>
+    <row r="4" spans="1:22" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="27" t="s">
+      <c r="H4" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R4" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10001,44 +7005,43 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
+      <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="19"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
@@ -10283,30 +7286,569 @@
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:T1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{0D2448DB-74AF-471F-B1A3-F2F271919F37}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" scale="75" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF81D1E-566D-4049-AE25-1A0EC9E31883}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="22" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="119"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <v>2</v>
+      </c>
+      <c r="K2" s="16">
+        <v>3</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="16">
+        <v>1</v>
+      </c>
+      <c r="N2" s="16">
+        <v>2</v>
+      </c>
+      <c r="O2" s="16">
+        <v>3</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="S2" s="56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{09D9F098-E4F3-417C-99FE-46C6F50CCC98}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -10315,1085 +7857,1230 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="74" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.M6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.M6_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="24" customWidth="1"/>
-    <col min="20" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="M3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="M4"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="125" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="K10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="L10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="129" t="s">
+      <c r="M10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="135" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="137" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="137"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="16">
+      <c r="N10" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="16">
+      <c r="C12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="16">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="16">
-        <v>1</v>
-      </c>
-      <c r="N2" s="16">
-        <v>2</v>
-      </c>
-      <c r="O2" s="16">
-        <v>3</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="21"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="28" t="s">
+      <c r="F12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="str">
+        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" s="21"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="12">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="78" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.MQ_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.MQ_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="19" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="22" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="24" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="24" customWidth="1"/>
-    <col min="20" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="132" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="M4"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="125" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="K10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="L10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="129" t="s">
+      <c r="M10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="135" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="137" t="s">
+      <c r="N10" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="str">
+        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="137"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="16">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16">
-        <v>2</v>
-      </c>
-      <c r="K2" s="16">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="16">
-        <v>1</v>
-      </c>
-      <c r="N2" s="16">
-        <v>2</v>
-      </c>
-      <c r="O2" s="16">
-        <v>3</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="21"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" s="21"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="12">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="Q1:Q2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="78" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.M6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.M6_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="19" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="M4"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:19" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="str">
+        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" scale="76" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="19" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="70"/>
+    </row>
+    <row r="3" spans="1:24" s="69" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+    </row>
+    <row r="4" spans="1:24" s="82" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="I4" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="80"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="74"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="74"/>
+      <c r="S4" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="80"/>
+      <c r="U4" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="V4" s="81"/>
+      <c r="X4" s="75"/>
+    </row>
+    <row r="5" spans="1:24" s="87" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="86"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:24" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="90"/>
+      <c r="I6" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="89"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="R6" s="89"/>
+      <c r="S6" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="T6" s="89"/>
+      <c r="U6" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="V6" s="90"/>
+      <c r="X6" s="90"/>
+    </row>
+    <row r="7" spans="1:24" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="84"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:24" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="84"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:D5">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:F3">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/owlcms/src/main/resources/templates/competitionBook/Total-A4.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/Total-A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D852C3-3D86-491A-924D-9E13251CE078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C53EA7-563E-410B-83F2-077F05D4E781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="447" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="35" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="160">
   <si>
     <t>${l.lastName}</t>
   </si>
@@ -513,10 +513,19 @@
     <t>${l.bestLifterScore}</t>
   </si>
   <si>
-    <t>${l.bestLifterRank}</t>
-  </si>
-  <si>
     <t>&lt;jx:forEach items="${wBest}" var="l" varStatus="lifterLoop"&gt;</t>
+  </si>
+  <si>
+    <t>${l.snatchRank &lt; 0 ? t.get("Results.Extra/Invited") : l.snatchRank}</t>
+  </si>
+  <si>
+    <t>${l.cleanJerkRank &lt; 0 ? t.get("Results.Extra/Invited") : l.cleanJerkRank}</t>
+  </si>
+  <si>
+    <t>${l.totalRank &lt; 0 ? t.get("Results.Extra/Invited") : l.totalRank}</t>
+  </si>
+  <si>
+    <t>${l.bestLifterRank &lt; 0 ? t.get("Results.Extra/Invited") : l.bestLifterRank}</t>
   </si>
 </sst>
 </file>
@@ -2147,8 +2156,8 @@
   </sheetPr>
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3855,8 +3864,8 @@
   </sheetPr>
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5495,8 +5504,8 @@
   </sheetPr>
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5725,7 +5734,7 @@
         <v>36</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="N7" s="25" t="s">
         <v>37</v>
@@ -5740,13 +5749,13 @@
         <v>40</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="S7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="T7" s="54" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -6145,8 +6154,8 @@
   </sheetPr>
   <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6372,7 +6381,7 @@
         <v>36</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="N7" s="25" t="s">
         <v>37</v>
@@ -6387,13 +6396,13 @@
         <v>40</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="S7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="T7" s="54" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -6794,7 +6803,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6982,7 +6991,7 @@
         <v>154</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="V4" s="20" t="s">
         <v>41</v>
@@ -7346,8 +7355,8 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7457,7 +7466,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -7528,7 +7537,7 @@
         <v>154</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -7870,8 +7879,8 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8190,8 +8199,8 @@
   </sheetPr>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8510,8 +8519,8 @@
   </sheetPr>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8845,8 +8854,8 @@
   </sheetPr>
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
